--- a/TestDocument/Test Design - Test Case.xlsx
+++ b/TestDocument/Test Design - Test Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT_Polytechnic\DATN\main\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAnTotNghiepFpoly\MoveTimeCinema\TestDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C3E8A0-1A64-4D62-8093-90D285F1FCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFBC36D-16AA-44E5-8BF7-ED05CB87258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Design" sheetId="1" r:id="rId1"/>
@@ -966,7 +966,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1085,6 +1085,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,24 +1113,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1402,21 +1399,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
+    <row r="1" spans="1:6" ht="27.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1434,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="47" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1453,8 +1450,8 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="4"/>
@@ -1467,8 +1464,8 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>78</v>
@@ -1479,7 +1476,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1495,7 +1492,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="42"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1506,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="42"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +1520,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="42"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1537,8 +1534,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="4"/>
@@ -1551,8 +1548,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4"/>
       <c r="D10" s="40" t="s">
         <v>122</v>
@@ -1563,7 +1560,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1579,7 +1576,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="42"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1593,7 +1590,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="42"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1604,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="42"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1621,10 +1618,10 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4"/>
@@ -1637,8 +1634,8 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="31"/>
       <c r="D16" s="4" t="s">
         <v>96</v>
@@ -1649,7 +1646,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="41" t="s">
         <v>91</v>
       </c>
@@ -1663,8 +1660,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="4"/>
@@ -1677,8 +1674,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
         <v>94</v>
@@ -1689,7 +1686,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -1703,8 +1700,8 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="47" t="s">
         <v>85</v>
       </c>
       <c r="C21" s="4"/>
@@ -1717,8 +1714,8 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="45"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
         <v>87</v>
@@ -1729,8 +1726,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
         <v>88</v>
@@ -1741,8 +1738,8 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="44"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>89</v>
@@ -1772,26 +1769,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="53.26953125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="53.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.77734375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="18.81640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="8"/>
+    <col min="7" max="7" width="15.44140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="28.2" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1840,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="101.5">
+    <row r="3" spans="1:10" ht="100.8">
       <c r="A3" s="16" t="s">
         <v>112</v>
       </c>
@@ -1867,7 +1864,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="58">
+    <row r="4" spans="1:10" ht="57.6">
       <c r="A4" s="16" t="s">
         <v>113</v>
       </c>
@@ -1891,7 +1888,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="58.5" thickBot="1">
+    <row r="5" spans="1:10" ht="58.2" thickBot="1">
       <c r="A5" s="16" t="s">
         <v>114</v>
       </c>
@@ -1915,7 +1912,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="58">
+    <row r="6" spans="1:10" ht="57.6">
       <c r="A6" s="12" t="s">
         <v>98</v>
       </c>
@@ -1939,7 +1936,7 @@
       <c r="I6" s="24"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" ht="116">
+    <row r="7" spans="1:10" ht="115.2">
       <c r="A7" s="16" t="s">
         <v>99</v>
       </c>
@@ -1963,7 +1960,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="116">
+    <row r="8" spans="1:10" ht="115.2">
       <c r="A8" s="16" t="s">
         <v>100</v>
       </c>
@@ -1987,7 +1984,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="72.5">
+    <row r="9" spans="1:10" ht="72">
       <c r="A9" s="16" t="s">
         <v>101</v>
       </c>
@@ -2011,7 +2008,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="58.5" thickBot="1">
+    <row r="10" spans="1:10" ht="58.2" thickBot="1">
       <c r="A10" s="16" t="s">
         <v>102</v>
       </c>
@@ -2035,7 +2032,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="58">
+    <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="12" t="s">
         <v>107</v>
       </c>
@@ -2059,7 +2056,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" ht="101.5">
+    <row r="12" spans="1:10" ht="100.8">
       <c r="A12" s="16" t="s">
         <v>108</v>
       </c>
@@ -2083,7 +2080,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="87">
+    <row r="13" spans="1:10" ht="86.4">
       <c r="A13" s="16" t="s">
         <v>109</v>
       </c>
@@ -2107,7 +2104,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="58.5" thickBot="1">
+    <row r="14" spans="1:10" ht="58.2" thickBot="1">
       <c r="A14" s="16" t="s">
         <v>110</v>
       </c>
@@ -2131,7 +2128,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="58">
+    <row r="15" spans="1:10" ht="57.6">
       <c r="A15" s="29" t="s">
         <v>115</v>
       </c>
@@ -2155,7 +2152,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" ht="116">
+    <row r="16" spans="1:10" ht="115.2">
       <c r="A16" s="2" t="s">
         <v>116</v>
       </c>
@@ -2179,7 +2176,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="130.5">
+    <row r="17" spans="1:10" ht="129.6">
       <c r="A17" s="2" t="s">
         <v>117</v>
       </c>
@@ -2203,7 +2200,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="58">
+    <row r="18" spans="1:10" ht="57.6">
       <c r="A18" s="2" t="s">
         <v>118</v>
       </c>
@@ -2227,7 +2224,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="87.5" thickBot="1">
+    <row r="19" spans="1:10" ht="87" thickBot="1">
       <c r="A19" s="29" t="s">
         <v>119</v>
       </c>
@@ -2260,29 +2257,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8C2D67-55A8-4D27-B91E-CB510E3F0F90}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="42" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="10" customFormat="1">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="27.6">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -2314,18 +2311,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.5">
+    <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="43" t="s">
         <v>129</v>
       </c>
       <c r="F3" s="4"/>
@@ -2336,16 +2333,16 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="43.5">
+    <row r="4" spans="1:10" ht="43.2">
       <c r="A4" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="43" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="4"/>
@@ -2356,18 +2353,18 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="101.5">
+    <row r="5" spans="1:10" ht="100.8">
       <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="44" t="s">
         <v>137</v>
       </c>
       <c r="F5" s="4"/>
@@ -2378,16 +2375,16 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="101.5">
+    <row r="6" spans="1:10" ht="100.8">
       <c r="A6" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="44" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="4"/>
@@ -2398,16 +2395,16 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="101.5">
+    <row r="7" spans="1:10" ht="100.8">
       <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="44" t="s">
         <v>136</v>
       </c>
       <c r="F7" s="4"/>
@@ -2418,16 +2415,16 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="101.5">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:10" ht="100.8">
+      <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="44" t="s">
         <v>137</v>
       </c>
       <c r="F8" s="4"/>
@@ -2443,13 +2440,13 @@
         <v>139</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="46" t="s">
         <v>153</v>
       </c>
       <c r="F9" s="4"/>
@@ -2465,11 +2462,11 @@
         <v>140</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="46" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="4"/>
@@ -2485,11 +2482,11 @@
         <v>141</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="46" t="s">
         <v>155</v>
       </c>
       <c r="F11" s="4"/>
@@ -2505,11 +2502,11 @@
         <v>142</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="45" t="s">
         <v>152</v>
       </c>
       <c r="F12" s="4"/>
@@ -2520,18 +2517,18 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="101.5">
+    <row r="13" spans="1:10" ht="100.8">
       <c r="A13" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="45" t="s">
         <v>161</v>
       </c>
       <c r="F13" s="4"/>
@@ -2542,16 +2539,16 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="101.5">
+    <row r="14" spans="1:10" ht="100.8">
       <c r="A14" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="49" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="45" t="s">
         <v>163</v>
       </c>
       <c r="F14" s="4"/>
@@ -2786,13 +2783,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="54.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="23.5">
+    <row r="2" spans="2:3" ht="23.4">
       <c r="B2" s="37" t="s">
         <v>53</v>
       </c>
